--- a/IC_190/info.xlsx
+++ b/IC_190/info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,20 +521,32 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>enrollment</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>130</v>
+          <t>color_space</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>enrollment</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>training</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>120</v>
       </c>
     </row>
